--- a/超级英雄战斗系统.xlsx
+++ b/超级英雄战斗系统.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="75" windowWidth="28035" windowHeight="12345" activeTab="1"/>
@@ -127,6 +127,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>近战减伤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>受到近战时的减伤属性</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -319,7 +323,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>收到所有直接伤害时的减伤属性</t>
+    <t>技能直接伤害时的增伤总和，减伤总和计算</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -683,31 +687,27 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>技能直接伤害时的增伤总和，减伤总和计算</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>近战减伤</t>
+    <t>近战增伤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>全局增伤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总的伤害减少属性，影响公式计算</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>近战攻击时的伤害增加系数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>近战增伤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>全局增伤</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -767,11 +767,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -922,7 +917,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -996,7 +991,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1031,7 +1025,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1207,107 +1200,107 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50:L50"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="B2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B5" t="s">
+    <row r="6" spans="1:2">
+      <c r="B6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="25" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="26" spans="1:2" ht="12.75" customHeight="1"/>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="B28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="B29" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="B30" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="B31" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="25" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="26" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B28" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B29" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B30" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B31" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:2">
       <c r="B32" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="B33" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B33" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4">
       <c r="B34" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="B35" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" t="s">
         <v>101</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>100</v>
       </c>
-      <c r="D35" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B36">
         <v>7</v>
@@ -1319,9 +1312,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B37">
         <v>8</v>
@@ -1333,9 +1326,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B38">
         <v>9</v>
@@ -1347,25 +1340,25 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4">
       <c r="B40" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="B41" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C41" t="s">
+        <v>102</v>
+      </c>
+      <c r="D41" t="s">
         <v>101</v>
       </c>
-      <c r="D41" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -1377,9 +1370,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B43">
         <v>2</v>
@@ -1391,9 +1384,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B44">
         <v>3</v>
@@ -1405,129 +1398,129 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:4">
       <c r="B45" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="B48" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3">
+      <c r="C49" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C49" t="s">
+    <row r="50" spans="2:3">
+      <c r="C50" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C50" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:3">
       <c r="C51" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.15">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3">
       <c r="B52" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3">
+      <c r="C53" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3">
+      <c r="C54" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C53" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C54" t="s">
+    <row r="55" spans="2:3">
+      <c r="C55" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3">
+      <c r="B56" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3">
+      <c r="C57" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C55" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B56" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C57" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:3">
       <c r="B58" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3">
+      <c r="C59" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3">
+      <c r="B60" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C59" t="s">
+    <row r="61" spans="2:3">
+      <c r="C61" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B60" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C61" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:3">
       <c r="B62" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.15">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3">
       <c r="C63" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.15">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3">
       <c r="B64" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
       <c r="C65" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="B67" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B67" t="s">
+    <row r="68" spans="1:3">
+      <c r="B68" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="B69" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="B70" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B68" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B69" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B70" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1538,28 +1531,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="14.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="56.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -1567,7 +1560,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -1575,15 +1568,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="B4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -1591,7 +1584,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="B6" t="s">
         <v>8</v>
       </c>
@@ -1599,23 +1592,23 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="B7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="B8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="B9" t="s">
         <v>20</v>
       </c>
@@ -1623,7 +1616,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -1631,7 +1624,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3">
       <c r="B11" t="s">
         <v>12</v>
       </c>
@@ -1639,15 +1632,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3">
       <c r="B12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3">
       <c r="B13" t="s">
         <v>15</v>
       </c>
@@ -1655,7 +1648,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3">
       <c r="B14" t="s">
         <v>17</v>
       </c>
@@ -1663,31 +1656,31 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3">
       <c r="B15" t="s">
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="B16" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:3">
       <c r="B17" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C17" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
       <c r="B18" t="s">
         <v>23</v>
       </c>
@@ -1695,7 +1688,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:3">
       <c r="B19" t="s">
         <v>25</v>
       </c>
@@ -1703,153 +1696,153 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:3">
       <c r="B20" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C20" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.15">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
       <c r="B21" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C21" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.15">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
       <c r="B22" t="s">
-        <v>167</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
       <c r="B23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
       <c r="B24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
       <c r="B25" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C25" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.15">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
       <c r="B26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3">
       <c r="B28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C28" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3">
       <c r="B29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C29" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3">
       <c r="B30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C30" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3">
+      <c r="B31" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B31" t="s">
-        <v>45</v>
-      </c>
       <c r="C31" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3">
       <c r="B32" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C32" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="B33" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C33" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="B34" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C34" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="B35" t="s">
+        <v>162</v>
+      </c>
+      <c r="C35" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="B36" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B35" t="s">
-        <v>161</v>
-      </c>
-      <c r="C35" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B36" t="s">
-        <v>162</v>
-      </c>
       <c r="C36" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="B39" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B39" t="s">
-        <v>140</v>
-      </c>
       <c r="C39" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -1859,278 +1852,278 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B59"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L40" sqref="L40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="B2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="B3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="B9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
+    <row r="13" spans="1:2">
+      <c r="B13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="B14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="B15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="B16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="B17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="B20" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="B21" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="B22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="B23" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="B24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="B25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="B26" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="B27" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="B28" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="B29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="B30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="B33" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B6" t="s">
+    <row r="34" spans="1:2">
+      <c r="B34" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B13" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B14" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B16" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B17" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="B37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="B38" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="B39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="B40" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="B41" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="B42" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="B45" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="B46" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="B47" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="B50" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="B51" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="B52" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="B53" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="B56" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="B57" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="B58" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="B59" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B20" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B21" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B22" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B23" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B24" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B25" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B26" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B27" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B28" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B29" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B30" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B33" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B34" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B37" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B38" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B39" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B40" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B41" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B42" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B45" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B46" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B47" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B50" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B51" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B52" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B53" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A55" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B56" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B57" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B58" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B59" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2140,14 +2133,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
